--- a/public/data/lime/lime_table_botswana.xlsx
+++ b/public/data/lime/lime_table_botswana.xlsx
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.91</v>
+        <v>0.34</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.53</v>
+        <v>0.95</v>
       </c>
       <c r="K9" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>0.46</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2108,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.92</v>
+        <v>0.37</v>
       </c>
       <c r="K19" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.36</v>
+        <v>0.58</v>
       </c>
       <c r="K20" t="n">
-        <v>1.05</v>
+        <v>0.02</v>
       </c>
       <c r="L20" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.45</v>
+        <v>0.45</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.86</v>
+        <v>0.92</v>
       </c>
       <c r="K23" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.93</v>
+        <v>0.23</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>0.27</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2578,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
